--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44957</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.03942495705617</v>
+        <v>-14.03942495705627</v>
       </c>
       <c r="C2" t="n">
-        <v>-65.20131819581063</v>
+        <v>-67.34040356014053</v>
       </c>
       <c r="D2" t="n">
-        <v>41.48702555112431</v>
+        <v>38.28051092794582</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.447992495979967</v>
+        <v>-4.447992495979904</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.23933407668528</v>
+        <v>-57.3612471770993</v>
       </c>
       <c r="D3" t="n">
-        <v>47.2300657800925</v>
+        <v>43.77850992564378</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.26070861406079</v>
+        <v>-55.26070861406067</v>
       </c>
       <c r="C4" t="n">
-        <v>-104.214147815123</v>
+        <v>-102.3648117457235</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.1604644309493</v>
+        <v>-5.794544373703312</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>2.58183695193447</v>
+        <v>2.581836951934605</v>
       </c>
       <c r="C5" t="n">
-        <v>-44.52831206975585</v>
+        <v>-46.49770589053895</v>
       </c>
       <c r="D5" t="n">
-        <v>51.43309264898216</v>
+        <v>46.0093123457648</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -556,13 +556,13 @@
         <v>44992</v>
       </c>
       <c r="B6" t="n">
-        <v>5.158339255334965</v>
+        <v>5.158339255335079</v>
       </c>
       <c r="C6" t="n">
-        <v>-38.0431209495533</v>
+        <v>-37.68316715720027</v>
       </c>
       <c r="D6" t="n">
-        <v>47.03929997002286</v>
+        <v>53.16217053078166</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>45006</v>
       </c>
       <c r="B7" t="n">
-        <v>4.498938980765523</v>
+        <v>4.49893898027026</v>
       </c>
       <c r="C7" t="n">
-        <v>-35.93845191433304</v>
+        <v>-37.68544760311555</v>
       </c>
       <c r="D7" t="n">
-        <v>45.76670398288761</v>
+        <v>46.83231636891374</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,19 +657,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5078.088592178077</v>
+        <v>5078.088592178059</v>
       </c>
       <c r="C2" t="n">
-        <v>71.26070861406079</v>
+        <v>71.26070861406066</v>
       </c>
       <c r="D2" t="n">
-        <v>71.26070861406079</v>
+        <v>71.26070861406066</v>
       </c>
       <c r="E2" t="n">
-        <v>4.453794288378799</v>
+        <v>4.453794288378791</v>
       </c>
       <c r="F2" t="n">
-        <v>4.453794288378799</v>
+        <v>4.453794288378791</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>404.3002928698454</v>
+        <v>404.3002928705382</v>
       </c>
       <c r="C3" t="n">
-        <v>20.10721991897053</v>
+        <v>20.10721991898776</v>
       </c>
       <c r="D3" t="n">
-        <v>17.24966045300023</v>
+        <v>17.24966045309924</v>
       </c>
       <c r="E3" t="n">
-        <v>1.003333738986362</v>
+        <v>1.003333738998742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8386351905040956</v>
+        <v>0.8386351905040872</v>
       </c>
       <c r="G3" t="n">
-        <v>1.405850582757696</v>
+        <v>1.405850582777978</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>

--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44957</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.03942495705627</v>
+        <v>-37.77565767431739</v>
       </c>
       <c r="C2" t="n">
-        <v>-67.34040356014053</v>
+        <v>-83.38662499298076</v>
       </c>
       <c r="D2" t="n">
-        <v>38.28051092794582</v>
+        <v>10.4851726416257</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.447992495979904</v>
+        <v>-16.8577675075534</v>
       </c>
       <c r="C3" t="n">
-        <v>-57.3612471770993</v>
+        <v>-62.68126774560918</v>
       </c>
       <c r="D3" t="n">
-        <v>43.77850992564378</v>
+        <v>31.59710820127697</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.26070861406067</v>
+        <v>-73.46828541045993</v>
       </c>
       <c r="C4" t="n">
-        <v>-102.3648117457235</v>
+        <v>-123.8622696184274</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.794544373703312</v>
+        <v>-24.05294669117765</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>2.581836951934605</v>
+        <v>-5.923259756703033</v>
       </c>
       <c r="C5" t="n">
-        <v>-46.49770589053895</v>
+        <v>-52.02601169938844</v>
       </c>
       <c r="D5" t="n">
-        <v>46.0093123457648</v>
+        <v>42.36434135073797</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -556,13 +556,13 @@
         <v>44992</v>
       </c>
       <c r="B6" t="n">
-        <v>5.158339255335079</v>
+        <v>-0.813984964316866</v>
       </c>
       <c r="C6" t="n">
-        <v>-37.68316715720027</v>
+        <v>-43.09364019884822</v>
       </c>
       <c r="D6" t="n">
-        <v>53.16217053078166</v>
+        <v>41.82183367732789</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>45006</v>
       </c>
       <c r="B7" t="n">
-        <v>4.49893898027026</v>
+        <v>-0.7434643759760675</v>
       </c>
       <c r="C7" t="n">
-        <v>-37.68544760311555</v>
+        <v>-42.13598895969873</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83231636891374</v>
+        <v>43.65740083395772</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,19 +657,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5078.088592178059</v>
+        <v>8004.574094287516</v>
       </c>
       <c r="C2" t="n">
-        <v>71.26070861406066</v>
+        <v>89.46828541045993</v>
       </c>
       <c r="D2" t="n">
-        <v>71.26070861406066</v>
+        <v>89.46828541045993</v>
       </c>
       <c r="E2" t="n">
-        <v>4.453794288378791</v>
+        <v>5.591767838153745</v>
       </c>
       <c r="F2" t="n">
-        <v>4.453794288378791</v>
+        <v>5.591767838153745</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -683,25 +683,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>404.3002928705382</v>
+        <v>1080.193220408153</v>
       </c>
       <c r="C3" t="n">
-        <v>20.10721991898776</v>
+        <v>32.86629307372758</v>
       </c>
       <c r="D3" t="n">
-        <v>17.24966045309924</v>
+        <v>28.42282685577335</v>
       </c>
       <c r="E3" t="n">
-        <v>1.003333738998742</v>
+        <v>1.715479285237397</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8386351905040872</v>
+        <v>1.37020373479394</v>
       </c>
       <c r="G3" t="n">
-        <v>1.405850582777978</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44957</v>
       </c>
       <c r="B2" t="n">
-        <v>-37.77565767431739</v>
+        <v>-14.0394249570563</v>
       </c>
       <c r="C2" t="n">
-        <v>-83.38662499298076</v>
+        <v>-64.00037660375116</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4851726416257</v>
+        <v>35.73557523025958</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>-16.8577675075534</v>
+        <v>-4.447992495979939</v>
       </c>
       <c r="C3" t="n">
-        <v>-62.68126774560918</v>
+        <v>-53.45657975429506</v>
       </c>
       <c r="D3" t="n">
-        <v>31.59710820127697</v>
+        <v>45.30428336671505</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-73.46828541045993</v>
+        <v>-55.26070861406064</v>
       </c>
       <c r="C4" t="n">
-        <v>-123.8622696184274</v>
+        <v>-103.3188346723032</v>
       </c>
       <c r="D4" t="n">
-        <v>-24.05294669117765</v>
+        <v>-8.815054065349496</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.923259756703033</v>
+        <v>2.581836951934619</v>
       </c>
       <c r="C5" t="n">
-        <v>-52.02601169938844</v>
+        <v>-48.89143932025562</v>
       </c>
       <c r="D5" t="n">
-        <v>42.36434135073797</v>
+        <v>47.9581983994832</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -556,13 +556,13 @@
         <v>44992</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.813984964316866</v>
+        <v>5.158339255335108</v>
       </c>
       <c r="C6" t="n">
-        <v>-43.09364019884822</v>
+        <v>-38.3500242216308</v>
       </c>
       <c r="D6" t="n">
-        <v>41.82183367732789</v>
+        <v>48.09636426423401</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>45006</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7434643759760675</v>
+        <v>4.498938979266221</v>
       </c>
       <c r="C7" t="n">
-        <v>-42.13598895969873</v>
+        <v>-38.75763939738084</v>
       </c>
       <c r="D7" t="n">
-        <v>43.65740083395772</v>
+        <v>48.40006426265792</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,19 +657,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8004.574094287516</v>
+        <v>5078.088592178055</v>
       </c>
       <c r="C2" t="n">
-        <v>89.46828541045993</v>
+        <v>71.26070861406063</v>
       </c>
       <c r="D2" t="n">
-        <v>89.46828541045993</v>
+        <v>71.26070861406063</v>
       </c>
       <c r="E2" t="n">
-        <v>5.591767838153745</v>
+        <v>4.45379428837879</v>
       </c>
       <c r="F2" t="n">
-        <v>5.591767838153745</v>
+        <v>4.45379428837879</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -683,25 +683,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1080.193220408153</v>
+        <v>404.3002928719447</v>
       </c>
       <c r="C3" t="n">
-        <v>32.86629307372758</v>
+        <v>20.10721991902274</v>
       </c>
       <c r="D3" t="n">
-        <v>28.42282685577335</v>
+        <v>17.24966045330005</v>
       </c>
       <c r="E3" t="n">
-        <v>1.715479285237397</v>
+        <v>1.003333739023843</v>
       </c>
       <c r="F3" t="n">
-        <v>1.37020373479394</v>
+        <v>0.8386351905040863</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.405850582819109</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
